--- a/biology/Médecine/Logis_du_gouverneur_de_Saintes/Logis_du_gouverneur_de_Saintes.xlsx
+++ b/biology/Médecine/Logis_du_gouverneur_de_Saintes/Logis_du_gouverneur_de_Saintes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le logis du gouverneur est un monument de la ville de Saintes, dans le département français de la Charente-Maritime.
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Établi sur un éperon rocheux dominant l'ancien quartier épiscopal, la « colline du Capitole », il est l'unique vestige de la citadelle construite au XVIIe siècle par le gouverneur Louis de Pernes. Une aile latérale, édifiée au XIXe siècle, accueille l'église Saint-Louis.
 Le logis du gouverneur est établi sur un site occupé depuis la plus haute Antiquité, probable emplacement de l'ancien forum romain, puis du château des comtes de Saintonge. Ce dernier est converti en une forteresse à l'époque médiévale, laquelle est tenue par les ducs d'Aquitaine, vassaux du roi d'Angleterre, puis par les représentants du roi de France à l'issue de la guerre de Cent Ans. Peu urbanisée, la colline accueille cependant à cette époque pas moins de trois édifices religieux : la chapelle Notre-Dame, desservant le château, la chapelle Saint-Frion et l'église Saint-Agnant, campée sur le bord méridional du plateau, en surplomb du faubourg Berthonnière.
